--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_41.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_41.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_8</t>
+          <t>model_1_41_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999747191002976</v>
+        <v>0.9447701234569491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.825745842496467</v>
+        <v>0.7162310732618793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819865348739595</v>
+        <v>0.7889155687108522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992925456005377</v>
+        <v>0.9481237206257153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001052324199311552</v>
+        <v>0.1773037651428294</v>
       </c>
       <c r="G2" t="n">
-        <v>1.165238353592742</v>
+        <v>1.897564119733576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6443312027512675</v>
+        <v>0.7550367713427246</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0022734188689316</v>
+        <v>0.3406887203809322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09666873576532277</v>
+        <v>0.9118979984925926</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03243954684195745</v>
+        <v>0.4210745363267998</v>
       </c>
       <c r="L2" t="n">
-        <v>1.016179775809533</v>
+        <v>0.924793359600952</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03295043727706833</v>
+        <v>0.4277060393538354</v>
       </c>
       <c r="N2" t="n">
-        <v>143.7135080757841</v>
+        <v>37.45978166025458</v>
       </c>
       <c r="O2" t="n">
-        <v>285.0486806190004</v>
+        <v>74.4243652484804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_9</t>
+          <t>model_1_41_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997482477902897</v>
+        <v>0.9447471468308968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.825732749594762</v>
+        <v>0.7161962889680216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8201310819808416</v>
+        <v>0.7889951722028846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992499264455803</v>
+        <v>0.9479770111583662</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001047925293905622</v>
+        <v>0.1773775267111029</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165325905886732</v>
+        <v>1.897796722466769</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6433806903554272</v>
+        <v>0.7547520342674006</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002410376376202214</v>
+        <v>0.3416522100779926</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09520688428098255</v>
+        <v>0.9086845441235063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03237167425243281</v>
+        <v>0.4211621145249213</v>
       </c>
       <c r="L3" t="n">
-        <v>1.016112141421459</v>
+        <v>0.9247620722803701</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03288149576210637</v>
+        <v>0.4277949968210313</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7218859601307</v>
+        <v>37.45894979715911</v>
       </c>
       <c r="O3" t="n">
-        <v>285.0570585033471</v>
+        <v>74.42353338538493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_7</t>
+          <t>model_1_41_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997441625666189</v>
+        <v>0.9447238931638638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8251070913914026</v>
+        <v>0.716161623238197</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8184882989697434</v>
+        <v>0.7890736338489811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993490249541145</v>
+        <v>0.9478314277954371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001064930146498137</v>
+        <v>0.1774521776604872</v>
       </c>
       <c r="G4" t="n">
-        <v>1.169509685173487</v>
+        <v>1.898028532361727</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6492568299320933</v>
+        <v>0.7544713815087809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002091921336053054</v>
+        <v>0.3426083042740936</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1011521424763035</v>
+        <v>0.9055042152554879</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03263326748117842</v>
+        <v>0.4212507301601828</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01637359573639</v>
+        <v>0.9247304077124955</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03314720882270743</v>
+        <v>0.4278850080639651</v>
       </c>
       <c r="N4" t="n">
-        <v>143.6896921442289</v>
+        <v>37.45810825599651</v>
       </c>
       <c r="O4" t="n">
-        <v>285.0248646874454</v>
+        <v>74.42269184422233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_5</t>
+          <t>model_1_41_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999716390627941</v>
+        <v>0.9447003525015956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8244867199531583</v>
+        <v>0.7161271180274954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8177311762751076</v>
+        <v>0.7891510617138666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993899875571751</v>
+        <v>0.9476868562537721</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001180531582667227</v>
+        <v>0.1775277499469989</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173658111837574</v>
+        <v>1.89825926886457</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6519650139103093</v>
+        <v>0.7541944265256112</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001960287191450078</v>
+        <v>0.3435577535045973</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1063136170488774</v>
+        <v>0.9023558746875284</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03435886468827554</v>
+        <v>0.4213404204998601</v>
       </c>
       <c r="L5" t="n">
-        <v>1.018150999811773</v>
+        <v>0.9246983523425982</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03489998246085196</v>
+        <v>0.4279761109368348</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4835808963213</v>
+        <v>37.45725668911313</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8187534395377</v>
+        <v>74.42184027733894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_6</t>
+          <t>model_1_41_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997214367099475</v>
+        <v>0.9446765147814539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8244632555384397</v>
+        <v>0.7160926668294034</v>
       </c>
       <c r="D6" t="n">
-        <v>0.817640441778563</v>
+        <v>0.7892275028071467</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993785963087076</v>
+        <v>0.9475433120962551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001159527131601246</v>
+        <v>0.1776042758745962</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173815018486841</v>
+        <v>1.898489644184844</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6522895659433613</v>
+        <v>0.7539210011672577</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00199689319634093</v>
+        <v>0.3445004555628886</v>
       </c>
       <c r="J6" t="n">
-        <v>0.104951685104518</v>
+        <v>0.8992403421976838</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03405183007712282</v>
+        <v>0.4214312231842774</v>
       </c>
       <c r="L6" t="n">
-        <v>1.017828050563359</v>
+        <v>0.9246658924683627</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0345881123614956</v>
+        <v>0.4280683436727623</v>
       </c>
       <c r="N6" t="n">
-        <v>143.5194860042902</v>
+        <v>37.45639474568682</v>
       </c>
       <c r="O6" t="n">
-        <v>284.8546585475066</v>
+        <v>74.42097833391264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_4</t>
+          <t>model_1_41_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997199060633262</v>
+        <v>0.9446524391666739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8243012110536636</v>
+        <v>0.7160583982339865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8174618406048557</v>
+        <v>0.7893028128423996</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994346779860326</v>
+        <v>0.9474008352255548</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001165898489025702</v>
+        <v>0.1776815655123034</v>
       </c>
       <c r="G7" t="n">
-        <v>1.174898610702685</v>
+        <v>1.89871879844019</v>
       </c>
       <c r="H7" t="n">
-        <v>0.652928411985821</v>
+        <v>0.7536516215378849</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001816673604055251</v>
+        <v>0.3454361483949159</v>
       </c>
       <c r="J7" t="n">
-        <v>0.106237440253615</v>
+        <v>0.8961570138000162</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03414525573232249</v>
+        <v>0.4215229122032435</v>
       </c>
       <c r="L7" t="n">
-        <v>1.017926011947125</v>
+        <v>0.924633108652492</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03468300937737328</v>
+        <v>0.4281614767021217</v>
       </c>
       <c r="N7" t="n">
-        <v>143.5085265079967</v>
+        <v>37.45552457716421</v>
       </c>
       <c r="O7" t="n">
-        <v>284.8436990512131</v>
+        <v>74.42010816539003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_3</t>
+          <t>model_1_41_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996977076066873</v>
+        <v>0.9446280926159824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8237142301935862</v>
+        <v>0.7160242140840267</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8165700826518437</v>
+        <v>0.789377163123363</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994686677744771</v>
+        <v>0.9472593492137008</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001258300157413555</v>
+        <v>0.1777597249320963</v>
       </c>
       <c r="G8" t="n">
-        <v>1.178823754416821</v>
+        <v>1.898947388008374</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6561181784766478</v>
+        <v>0.7533856748939556</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001707446738748616</v>
+        <v>0.3463653339284925</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1145972003852886</v>
+        <v>0.8931064144071617</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03547252679770015</v>
+        <v>0.421615612770799</v>
       </c>
       <c r="L8" t="n">
-        <v>1.019346713172013</v>
+        <v>0.9245999559026142</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03603118363524633</v>
+        <v>0.4282556372109497</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3559871005324</v>
+        <v>37.45464500100743</v>
       </c>
       <c r="O8" t="n">
-        <v>284.6911596437487</v>
+        <v>74.41922858923324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_2</t>
+          <t>model_1_41_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997012934722499</v>
+        <v>0.9446035046146584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8234160751156302</v>
+        <v>0.7159902265185722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8159159055142129</v>
+        <v>0.789450560678296</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994980271375578</v>
+        <v>0.9471189351537586</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001243373896278212</v>
+        <v>0.1778386594777617</v>
       </c>
       <c r="G9" t="n">
-        <v>1.180817518795991</v>
+        <v>1.899174663015066</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6584581321665832</v>
+        <v>0.7531231360957948</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001613099838003741</v>
+        <v>0.347287479598579</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1190245095651033</v>
+        <v>0.8900831671368861</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03526150728880165</v>
+        <v>0.4217092119906342</v>
       </c>
       <c r="L9" t="n">
-        <v>1.019117217776007</v>
+        <v>0.9245664743688965</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0358168407800248</v>
+        <v>0.4283507105249324</v>
       </c>
       <c r="N9" t="n">
-        <v>143.3798534203485</v>
+        <v>37.45375709430793</v>
       </c>
       <c r="O9" t="n">
-        <v>284.7150259635649</v>
+        <v>74.41834068253375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_1</t>
+          <t>model_1_41_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996825888666004</v>
+        <v>0.94457870550267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8229319808109598</v>
+        <v>0.71595636676065</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8149372857716085</v>
+        <v>0.7895229417324087</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995317473399253</v>
+        <v>0.9469795173866241</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001321232316647535</v>
+        <v>0.1779182717492888</v>
       </c>
       <c r="G10" t="n">
-        <v>1.184054659640371</v>
+        <v>1.899401083372202</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6619585982422462</v>
+        <v>0.7528642332621286</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001504739292949704</v>
+        <v>0.3482030822835884</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1214145293524141</v>
+        <v>0.8870936919605518</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03634875949255401</v>
+        <v>0.4218035938079342</v>
       </c>
       <c r="L10" t="n">
-        <v>1.020314312537572</v>
+        <v>0.9245327053653378</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03692121611913279</v>
+        <v>0.4284465787615077</v>
       </c>
       <c r="N10" t="n">
-        <v>143.2583808093489</v>
+        <v>37.45286196321288</v>
       </c>
       <c r="O10" t="n">
-        <v>284.5935533525653</v>
+        <v>74.41744555143869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_0</t>
+          <t>model_1_41_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996802197180052</v>
+        <v>0.9445536996878522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8226455936588328</v>
+        <v>0.7159226379341291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8139446203319332</v>
+        <v>0.7895944456870151</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995439940746231</v>
+        <v>0.9468411470038224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001331093960923964</v>
+        <v>0.1779985475962607</v>
       </c>
       <c r="G11" t="n">
-        <v>1.185969731845336</v>
+        <v>1.899626628190455</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6655093049619156</v>
+        <v>0.7526084677625389</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001465384165939574</v>
+        <v>0.3491118064485429</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1195492209332649</v>
+        <v>0.884134232444044</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03648416041138899</v>
+        <v>0.4218987409275604</v>
       </c>
       <c r="L11" t="n">
-        <v>1.020465938047664</v>
+        <v>0.9244986548940965</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03705874946708815</v>
+        <v>0.4285432243531557</v>
       </c>
       <c r="N11" t="n">
-        <v>143.2435082956559</v>
+        <v>37.45195977658982</v>
       </c>
       <c r="O11" t="n">
-        <v>284.5786808388723</v>
+        <v>74.41654336481564</v>
       </c>
     </row>
   </sheetData>
